--- a/src/test/resources/testdata/excels/Adactin Master Test Data.xlsx
+++ b/src/test/resources/testdata/excels/Adactin Master Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\007LiveTechWS\FrameworkAutomation\src\test\resources\testdata\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5099557-53E0-4F63-8AEF-9D6A32AD5FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA1B41C-92BC-4CFE-81A5-651721A44442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AAE269A-36AE-4A05-B59D-0356C0209B76}"/>
   </bookViews>

--- a/src/test/resources/testdata/excels/Adactin Master Test Data.xlsx
+++ b/src/test/resources/testdata/excels/Adactin Master Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\007LiveTechWS\FrameworkAutomation\src\test\resources\testdata\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA1B41C-92BC-4CFE-81A5-651721A44442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B214176-3879-4C5A-AF71-9E1226566C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AAE269A-36AE-4A05-B59D-0356C0209B76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>livetech</t>
+  </si>
+  <si>
+    <t>TC-104</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Check InDate</t>
+  </si>
+  <si>
+    <t>03/01/2024</t>
   </si>
 </sst>
 </file>
@@ -142,11 +157,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -462,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E0E37-BBFC-4391-BD1C-7CC2B4F8DE95}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -554,6 +570,46 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{A27DC400-CD9D-4129-919D-89D8EDE6AFFF}"/>
